--- a/Defence2D/Game_Design/테이블/StageGenData.xlsx
+++ b/Defence2D/Game_Design/테이블/StageGenData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78a343869a8ef49c/사이드프로젝트/테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIDE_PROJECT\Defence2D\Game_Design\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="11_AD4D066CA252ABDACC1048764124708549B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD58E867-89F7-4DFA-AF6C-B731B33F9879}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87276AF-C6BB-4E34-8D38-BC6898D58FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StageGenData (csv용)" sheetId="2" r:id="rId1"/>
+    <sheet name="StageGenData (작업용)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
     <author>Seungjae Lee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{142D9C1B-23BD-453C-B376-137FC9872310}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{90E31039-3246-4C20-8ADB-8B12C3AD782E}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인덱스</t>
+          <t>레코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
         </r>
         <r>
           <rPr>
@@ -77,6 +99,415 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드인지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식별하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획자의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>편의를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>용도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라이언트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{142D9C1B-23BD-453C-B376-137FC9872310}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인덱스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -143,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C0BA486F-9344-4961-B261-680D561F998E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C0BA486F-9344-4961-B261-680D561F998E}">
       <text>
         <r>
           <rPr>
@@ -304,436 +735,6 @@
             <family val="2"/>
           </rPr>
           <t>]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{90E31039-3246-4C20-8ADB-8B12C3AD782E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&lt;</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt;
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어떤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드인지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>식별하기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. 
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기획자의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데이터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>관리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>편의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>용도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>클라이언트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>서버</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>참조할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
         </r>
       </text>
     </comment>
@@ -4080,7 +4081,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
   <si>
     <t>코드</t>
   </si>
@@ -4278,6 +4279,46 @@
   </si>
   <si>
     <t>생산 성공 확률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_gen_cooltime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_gen_cooltime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>one_time_gen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_gen_success_rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4286,7 +4327,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -4428,7 +4469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4451,10 +4492,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4473,10 +4517,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4741,34 +4781,963 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156EDA31-9401-4D95-927B-6AF4767BF1FC}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4793,962 +5762,994 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.25</v>
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>10</v>
       </c>
       <c r="I3" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
         <v>10</v>
       </c>
       <c r="I4" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="8">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.25</v>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
       </c>
       <c r="I6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="9">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.25</v>
+      <c r="J8" s="9">
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
         <v>10</v>
       </c>
       <c r="I9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="G10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5">
         <v>10</v>
       </c>
       <c r="I10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="8">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.25</v>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
       <c r="I13" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="9">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.25</v>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
         <v>10</v>
       </c>
       <c r="I15" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
       </c>
       <c r="I16" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="8">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="J17" s="9">
-        <v>0.25</v>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <v>7</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
         <v>6</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>10</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4">
         <v>6</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
       </c>
       <c r="I19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="9">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
         <v>7</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.25</v>
+      <c r="J20" s="9">
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
       </c>
       <c r="G21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
       </c>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="5">
         <v>10</v>
       </c>
       <c r="I22" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="8">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.25</v>
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>7</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>10</v>
       </c>
       <c r="I24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
         <v>10</v>
       </c>
       <c r="I25" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" s="9">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>10</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.25</v>
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>52</v>
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="6">
         <v>9</v>
       </c>
       <c r="G27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5">
         <v>10</v>
       </c>
       <c r="I27" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>53</v>
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="6">
         <v>9</v>
       </c>
       <c r="G28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5">
         <v>10</v>
       </c>
       <c r="I28" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" s="8">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3">
-        <v>5</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.25</v>
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5">
+        <v>7</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3">
         <v>5</v>
       </c>
-      <c r="F30" s="4">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3">
-        <v>6</v>
-      </c>
       <c r="J30" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="A31" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3">
         <v>6</v>
       </c>
-      <c r="F31" s="4">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="J31" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H31" s="3">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="H32" s="3">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3">
         <v>7</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>0.45</v>
       </c>
     </row>
